--- a/data/trans_orig/P6703-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6703-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19AB496F-D40C-4CA4-A89B-894B097631CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13EC8A54-33F2-42A8-9D82-84874E6FC432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F8BC0631-36E9-4415-8990-AFBBE3D3C613}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{023F93EB-968E-4C3D-9C75-F63FE39A05D9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="731">
   <si>
     <t>Población según si tiene tiempo de llevar al día su trabajo en 2012 (Tasa respuesta: 33,96%)</t>
   </si>
@@ -94,13 +94,13 @@
     <t>1,62%</t>
   </si>
   <si>
-    <t>7,62%</t>
+    <t>8,06%</t>
   </si>
   <si>
     <t>8,18%</t>
   </si>
   <si>
-    <t>25,58%</t>
+    <t>26,01%</t>
   </si>
   <si>
     <t>3,77%</t>
@@ -109,2149 +109,2128 @@
     <t>1,1%</t>
   </si>
   <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
     <t>11,32%</t>
   </si>
   <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tiene tiempo de llevar al día su trabajo en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
   </si>
   <si>
     <t>4,24%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>Población según si tiene tiempo de llevar al día su trabajo en 2023 (Tasa respuesta: 10,37%)</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
   </si>
   <si>
     <t>35,98%</t>
   </si>
   <si>
-    <t>49,49%</t>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
   </si>
   <si>
     <t>42,39%</t>
   </si>
   <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tiene tiempo de llevar al día su trabajo en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>Población según si tiene tiempo de llevar al día su trabajo en 2023 (Tasa respuesta: 10,37%)</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
+    <t>65,73%</t>
   </si>
   <si>
     <t>48,4%</t>
   </si>
   <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
   </si>
   <si>
     <t>49,46%</t>
   </si>
   <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
   </si>
 </sst>
 </file>
@@ -2663,7 +2642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FD00DE-9F13-4CF7-90B3-0ABD8C313EF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0D895C-DC9C-419D-B6BB-C87B2C0FCC1E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3406,10 +3385,10 @@
         <v>100</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -3418,13 +3397,13 @@
         <v>6508</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -3433,13 +3412,13 @@
         <v>11554</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3433,13 @@
         <v>10852</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -3469,13 +3448,13 @@
         <v>9894</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -3484,13 +3463,13 @@
         <v>20746</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3484,13 @@
         <v>71383</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H18" s="7">
         <v>41</v>
@@ -3520,13 +3499,13 @@
         <v>45591</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>108</v>
@@ -3643,7 +3622,7 @@
         <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,7 +3678,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3711,13 +3690,13 @@
         <v>6190</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -3726,13 +3705,13 @@
         <v>7406</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -3741,13 +3720,13 @@
         <v>13596</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,13 +3741,13 @@
         <v>6279</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -3777,13 +3756,13 @@
         <v>6486</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
@@ -3792,13 +3771,13 @@
         <v>12765</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,13 +3792,13 @@
         <v>48636</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>25</v>
@@ -3828,13 +3807,13 @@
         <v>27796</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>69</v>
@@ -3843,13 +3822,13 @@
         <v>76432</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,13 +3843,13 @@
         <v>91303</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>56</v>
@@ -3879,13 +3858,13 @@
         <v>64648</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>139</v>
@@ -3894,13 +3873,13 @@
         <v>155952</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,13 +3894,13 @@
         <v>169981</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>99</v>
@@ -3930,13 +3909,13 @@
         <v>108005</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>254</v>
@@ -3945,13 +3924,13 @@
         <v>277987</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,7 +3986,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4019,13 +3998,13 @@
         <v>12961</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -4034,13 +4013,13 @@
         <v>12413</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M28" s="7">
         <v>24</v>
@@ -4049,13 +4028,13 @@
         <v>25374</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,13 +4049,13 @@
         <v>12674</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>104</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -4085,13 +4064,13 @@
         <v>12220</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>25</v>
@@ -4100,13 +4079,13 @@
         <v>24894</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,13 +4100,13 @@
         <v>99842</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H30" s="7">
         <v>68</v>
@@ -4136,13 +4115,13 @@
         <v>70096</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M30" s="7">
         <v>167</v>
@@ -4151,13 +4130,13 @@
         <v>169938</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,13 +4151,13 @@
         <v>137790</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>75</v>
@@ -4187,13 +4166,13 @@
         <v>80838</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M31" s="7">
         <v>210</v>
@@ -4202,13 +4181,13 @@
         <v>218629</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4202,13 @@
         <v>157506</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H32" s="7">
         <v>121</v>
@@ -4238,13 +4217,13 @@
         <v>125935</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>267</v>
@@ -4253,13 +4232,13 @@
         <v>283441</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4306,13 @@
         <v>28069</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>159</v>
+        <v>235</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>26</v>
@@ -4342,13 +4321,13 @@
         <v>29904</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>53</v>
@@ -4357,13 +4336,13 @@
         <v>57973</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4357,13 @@
         <v>34684</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H35" s="7">
         <v>32</v>
@@ -4393,13 +4372,13 @@
         <v>33761</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M35" s="7">
         <v>64</v>
@@ -4408,13 +4387,13 @@
         <v>68445</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4408,13 @@
         <v>269586</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H36" s="7">
         <v>161</v>
@@ -4444,13 +4423,13 @@
         <v>173520</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M36" s="7">
         <v>420</v>
@@ -4459,13 +4438,13 @@
         <v>443105</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4459,13 @@
         <v>428008</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H37" s="7">
         <v>254</v>
@@ -4495,13 +4474,13 @@
         <v>279166</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M37" s="7">
         <v>660</v>
@@ -4510,13 +4489,13 @@
         <v>707174</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>265</v>
+        <v>29</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4510,13 @@
         <v>661481</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H38" s="7">
         <v>403</v>
@@ -4546,13 +4525,13 @@
         <v>432329</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M38" s="7">
         <v>1013</v>
@@ -4561,13 +4540,13 @@
         <v>1093810</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,7 +4602,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -4644,7 +4623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0CA82B-36B4-463F-B627-BEF6AC99AA4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7651F71-AA12-4433-AC5A-8D1A063ADA39}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4661,7 +4640,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4768,13 +4747,13 @@
         <v>1108</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4783,13 +4762,13 @@
         <v>968</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4798,13 +4777,13 @@
         <v>2076</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,13 +4798,13 @@
         <v>995</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4834,13 +4813,13 @@
         <v>2705</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -4849,7 +4828,7 @@
         <v>3700</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>289</v>
+        <v>105</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>290</v>
@@ -5005,10 +4984,10 @@
         <v>316</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5055,13 @@
         <v>6897</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -5091,13 +5070,13 @@
         <v>9114</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -5106,13 +5085,13 @@
         <v>16010</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5106,13 @@
         <v>12750</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -5142,13 +5121,13 @@
         <v>9784</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>13</v>
+        <v>330</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="M11" s="7">
         <v>23</v>
@@ -5157,13 +5136,13 @@
         <v>22534</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,13 +5157,13 @@
         <v>45929</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
@@ -5193,13 +5172,13 @@
         <v>22274</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M12" s="7">
         <v>67</v>
@@ -5208,13 +5187,13 @@
         <v>68202</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>341</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,10 +5277,10 @@
         <v>354</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>214</v>
+        <v>355</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M14" s="7">
         <v>123</v>
@@ -5310,13 +5289,13 @@
         <v>127017</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>358</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5363,13 @@
         <v>11919</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>358</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>360</v>
+        <v>248</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -5402,7 +5381,7 @@
         <v>361</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>362</v>
@@ -5414,13 +5393,13 @@
         <v>21202</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,13 +5414,13 @@
         <v>22819</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -5450,13 +5429,13 @@
         <v>14412</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -5465,13 +5444,13 @@
         <v>37231</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,7 +5465,7 @@
         <v>73989</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>169</v>
+        <v>372</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>373</v>
@@ -5540,10 +5519,10 @@
         <v>381</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="H19" s="7">
         <v>82</v>
@@ -5552,13 +5531,13 @@
         <v>81675</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="M19" s="7">
         <v>208</v>
@@ -5567,13 +5546,13 @@
         <v>223229</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,13 +5567,13 @@
         <v>163761</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="H20" s="7">
         <v>112</v>
@@ -5603,13 +5582,13 @@
         <v>118294</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="M20" s="7">
         <v>260</v>
@@ -5618,13 +5597,13 @@
         <v>282054</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5680,7 +5659,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5695,10 +5674,10 @@
         <v>58</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -5743,13 +5722,13 @@
         <v>17266</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="H23" s="7">
         <v>18</v>
@@ -5758,13 +5737,13 @@
         <v>18003</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="M23" s="7">
         <v>32</v>
@@ -5773,13 +5752,13 @@
         <v>35269</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5773,13 @@
         <v>75863</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="H24" s="7">
         <v>42</v>
@@ -5809,13 +5788,13 @@
         <v>44308</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>112</v>
@@ -5824,13 +5803,13 @@
         <v>120171</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,13 +5824,13 @@
         <v>111536</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="H25" s="7">
         <v>68</v>
@@ -5860,13 +5839,13 @@
         <v>67896</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="M25" s="7">
         <v>168</v>
@@ -5875,13 +5854,13 @@
         <v>179433</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5896,13 +5875,13 @@
         <v>149585</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>430</v>
+        <v>297</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>89</v>
+        <v>384</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>431</v>
+        <v>275</v>
       </c>
       <c r="H26" s="7">
         <v>129</v>
@@ -5911,13 +5890,13 @@
         <v>132453</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M26" s="7">
         <v>263</v>
@@ -5926,13 +5905,13 @@
         <v>282038</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5988,7 +5967,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6000,13 +5979,13 @@
         <v>11406</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>360</v>
+        <v>437</v>
       </c>
       <c r="H28" s="7">
         <v>9</v>
@@ -6018,10 +5997,10 @@
         <v>399</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>109</v>
+        <v>438</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M28" s="7">
         <v>20</v>
@@ -6030,13 +6009,13 @@
         <v>20898</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>358</v>
+        <v>108</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>441</v>
+        <v>241</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6051,13 +6030,13 @@
         <v>20572</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>154</v>
+        <v>441</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="H29" s="7">
         <v>15</v>
@@ -6066,13 +6045,13 @@
         <v>15781</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="M29" s="7">
         <v>35</v>
@@ -6081,13 +6060,13 @@
         <v>36353</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>448</v>
+        <v>248</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6102,13 +6081,13 @@
         <v>61534</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="H30" s="7">
         <v>47</v>
@@ -6117,13 +6096,13 @@
         <v>50014</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>455</v>
       </c>
       <c r="M30" s="7">
         <v>108</v>
@@ -6132,13 +6111,13 @@
         <v>111548</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6153,13 +6132,13 @@
         <v>134508</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="H31" s="7">
         <v>112</v>
@@ -6168,13 +6147,13 @@
         <v>116917</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="M31" s="7">
         <v>248</v>
@@ -6183,13 +6162,13 @@
         <v>251426</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6204,13 +6183,13 @@
         <v>173151</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="H32" s="7">
         <v>124</v>
@@ -6219,13 +6198,13 @@
         <v>133269</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>473</v>
       </c>
       <c r="M32" s="7">
         <v>289</v>
@@ -6234,13 +6213,13 @@
         <v>306420</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6308,13 +6287,13 @@
         <v>40899</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>358</v>
+        <v>108</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>475</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>477</v>
+        <v>407</v>
       </c>
       <c r="H34" s="7">
         <v>37</v>
@@ -6323,13 +6302,13 @@
         <v>36756</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="M34" s="7">
         <v>75</v>
@@ -6338,13 +6317,13 @@
         <v>77655</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6359,10 +6338,10 @@
         <v>74402</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>484</v>
@@ -6392,10 +6371,10 @@
         <v>488</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>489</v>
+        <v>117</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6410,13 +6389,13 @@
         <v>269881</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="H36" s="7">
         <v>169</v>
@@ -6425,13 +6404,13 @@
         <v>173494</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>496</v>
       </c>
       <c r="M36" s="7">
         <v>422</v>
@@ -6440,13 +6419,13 @@
         <v>443375</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6461,13 +6440,13 @@
         <v>466056</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>500</v>
+        <v>266</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="H37" s="7">
         <v>308</v>
@@ -6476,13 +6455,13 @@
         <v>310578</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>217</v>
+        <v>501</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M37" s="7">
         <v>746</v>
@@ -6491,13 +6470,13 @@
         <v>776634</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6512,13 +6491,13 @@
         <v>571083</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="H38" s="7">
         <v>439</v>
@@ -6527,13 +6506,13 @@
         <v>455660</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="M38" s="7">
         <v>964</v>
@@ -6542,13 +6521,13 @@
         <v>1026743</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6604,7 +6583,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -6625,7 +6604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0151C5-E928-4E1D-85BC-5012C13E9FB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B9D320-82ED-4C96-BC06-9CB556958F1F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6642,7 +6621,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6755,7 +6734,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6770,7 +6749,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6785,7 +6764,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6800,13 +6779,13 @@
         <v>1263</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6815,13 +6794,13 @@
         <v>543</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -6830,13 +6809,13 @@
         <v>1806</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6857,7 +6836,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6872,7 +6851,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6887,7 +6866,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6902,13 +6881,13 @@
         <v>7042</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>526</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -6917,13 +6896,13 @@
         <v>1917</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -6932,13 +6911,13 @@
         <v>8959</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6953,13 +6932,13 @@
         <v>7080</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>534</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -6968,13 +6947,13 @@
         <v>5944</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="M8" s="7">
         <v>14</v>
@@ -6983,13 +6962,13 @@
         <v>13024</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7057,13 +7036,13 @@
         <v>1273</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>542</v>
+        <v>284</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -7072,13 +7051,13 @@
         <v>5160</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>438</v>
+        <v>108</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -7087,13 +7066,13 @@
         <v>6433</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>545</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7108,13 +7087,13 @@
         <v>5263</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -7123,13 +7102,13 @@
         <v>664</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -7138,13 +7117,13 @@
         <v>5927</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>57</v>
+        <v>404</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7159,13 +7138,13 @@
         <v>4972</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>479</v>
+        <v>551</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -7174,13 +7153,13 @@
         <v>10888</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -7189,13 +7168,13 @@
         <v>15861</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7210,13 +7189,13 @@
         <v>14629</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -7225,13 +7204,13 @@
         <v>17391</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>565</v>
+        <v>265</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -7240,13 +7219,13 @@
         <v>32019</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7261,13 +7240,13 @@
         <v>48409</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
@@ -7276,13 +7255,13 @@
         <v>31245</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="M14" s="7">
         <v>84</v>
@@ -7291,13 +7270,13 @@
         <v>79654</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7365,13 +7344,13 @@
         <v>5564</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>67</v>
+        <v>577</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -7380,13 +7359,13 @@
         <v>2795</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>583</v>
+        <v>154</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -7395,13 +7374,13 @@
         <v>8359</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7416,13 +7395,13 @@
         <v>9017</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>57</v>
+        <v>404</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>587</v>
+        <v>148</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -7431,13 +7410,13 @@
         <v>6315</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>589</v>
+        <v>111</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -7446,13 +7425,13 @@
         <v>15332</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>404</v>
+        <v>586</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7467,13 +7446,13 @@
         <v>36597</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -7482,13 +7461,13 @@
         <v>18841</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="M18" s="7">
         <v>62</v>
@@ -7497,13 +7476,13 @@
         <v>55437</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>602</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7518,13 +7497,13 @@
         <v>40950</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>604</v>
+        <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -7533,13 +7512,13 @@
         <v>35290</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="M19" s="7">
         <v>84</v>
@@ -7548,13 +7527,13 @@
         <v>76240</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>611</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7569,13 +7548,13 @@
         <v>120665</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="H20" s="7">
         <v>80</v>
@@ -7584,13 +7563,13 @@
         <v>65879</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="M20" s="7">
         <v>137</v>
@@ -7599,13 +7578,13 @@
         <v>186544</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7661,7 +7640,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7673,13 +7652,13 @@
         <v>2363</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>107</v>
+        <v>613</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -7688,13 +7667,13 @@
         <v>2108</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>548</v>
+        <v>587</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -7703,13 +7682,13 @@
         <v>4471</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7724,13 +7703,13 @@
         <v>5984</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>628</v>
+        <v>371</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>101</v>
+        <v>621</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -7739,13 +7718,13 @@
         <v>6165</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>405</v>
+        <v>624</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -7754,13 +7733,13 @@
         <v>12149</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7775,13 +7754,13 @@
         <v>25355</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -7790,13 +7769,13 @@
         <v>23381</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="M24" s="7">
         <v>54</v>
@@ -7805,13 +7784,13 @@
         <v>48736</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7826,13 +7805,13 @@
         <v>19256</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>130</v>
+        <v>639</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -7841,13 +7820,13 @@
         <v>16156</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="M25" s="7">
         <v>37</v>
@@ -7856,13 +7835,13 @@
         <v>35413</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7877,13 +7856,13 @@
         <v>28147</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="H26" s="7">
         <v>47</v>
@@ -7892,13 +7871,13 @@
         <v>41686</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="M26" s="7">
         <v>72</v>
@@ -7907,13 +7886,13 @@
         <v>69832</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7969,7 +7948,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7981,13 +7960,13 @@
         <v>15622</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>376</v>
+        <v>655</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="H28" s="7">
         <v>11</v>
@@ -7996,13 +7975,13 @@
         <v>7034</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>148</v>
+        <v>658</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="M28" s="7">
         <v>24</v>
@@ -8011,13 +7990,13 @@
         <v>22656</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>72</v>
+        <v>663</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8032,13 +8011,13 @@
         <v>7775</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>666</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>667</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -8047,13 +8026,13 @@
         <v>3555</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>669</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>591</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -8062,13 +8041,13 @@
         <v>11331</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>671</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8083,13 +8062,13 @@
         <v>15962</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>674</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>675</v>
       </c>
       <c r="H30" s="7">
         <v>20</v>
@@ -8098,13 +8077,13 @@
         <v>12857</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>677</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>678</v>
       </c>
       <c r="M30" s="7">
         <v>37</v>
@@ -8113,13 +8092,13 @@
         <v>28819</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>376</v>
+        <v>655</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>679</v>
+        <v>615</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8134,13 +8113,13 @@
         <v>28158</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>681</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>683</v>
       </c>
       <c r="H31" s="7">
         <v>39</v>
@@ -8149,13 +8128,13 @@
         <v>29124</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>684</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>686</v>
       </c>
       <c r="M31" s="7">
         <v>67</v>
@@ -8164,13 +8143,13 @@
         <v>57282</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>687</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>688</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8185,13 +8164,13 @@
         <v>45568</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>690</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>692</v>
       </c>
       <c r="H32" s="7">
         <v>53</v>
@@ -8200,13 +8179,13 @@
         <v>43038</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>693</v>
+        <v>141</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="M32" s="7">
         <v>97</v>
@@ -8215,13 +8194,13 @@
         <v>88606</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8289,13 +8268,13 @@
         <v>24821</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>448</v>
+        <v>248</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>699</v>
+        <v>399</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H34" s="7">
         <v>25</v>
@@ -8304,13 +8283,13 @@
         <v>17096</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>160</v>
+        <v>697</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>358</v>
+        <v>249</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="M34" s="7">
         <v>47</v>
@@ -8319,13 +8298,13 @@
         <v>41917</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>361</v>
+        <v>13</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8340,13 +8319,13 @@
         <v>29303</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="H35" s="7">
         <v>22</v>
@@ -8355,13 +8334,13 @@
         <v>17243</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="M35" s="7">
         <v>47</v>
@@ -8370,13 +8349,13 @@
         <v>46545</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>710</v>
+        <v>251</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>711</v>
+        <v>664</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8391,13 +8370,13 @@
         <v>82886</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="H36" s="7">
         <v>96</v>
@@ -8406,13 +8385,13 @@
         <v>65967</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>715</v>
+        <v>562</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="M36" s="7">
         <v>176</v>
@@ -8421,13 +8400,13 @@
         <v>148853</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8442,13 +8421,13 @@
         <v>110035</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="H37" s="7">
         <v>132</v>
@@ -8457,13 +8436,13 @@
         <v>99877</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="M37" s="7">
         <v>233</v>
@@ -8472,13 +8451,13 @@
         <v>209912</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>728</v>
+        <v>258</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>729</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8493,13 +8472,13 @@
         <v>249869</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>91</v>
+        <v>723</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="H38" s="7">
         <v>236</v>
@@ -8508,13 +8487,13 @@
         <v>187792</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="M38" s="7">
         <v>404</v>
@@ -8523,13 +8502,13 @@
         <v>437661</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8585,7 +8564,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6703-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6703-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13EC8A54-33F2-42A8-9D82-84874E6FC432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BF1332C-FE76-49DD-B69C-F6BF9B8C062C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{023F93EB-968E-4C3D-9C75-F63FE39A05D9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E11D6243-9D81-46AB-A6F4-64E57E1F0B46}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="729">
   <si>
     <t>Población según si tiene tiempo de llevar al día su trabajo en 2012 (Tasa respuesta: 33,96%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -94,22 +94,22 @@
     <t>1,62%</t>
   </si>
   <si>
-    <t>8,06%</t>
+    <t>9,19%</t>
   </si>
   <si>
     <t>8,18%</t>
   </si>
   <si>
-    <t>26,01%</t>
+    <t>26,4%</t>
   </si>
   <si>
     <t>3,77%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -118,2100 +118,2097 @@
     <t>28,51%</t>
   </si>
   <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
   </si>
   <si>
     <t>8,71%</t>
   </si>
   <si>
-    <t>27,89%</t>
+    <t>27,31%</t>
   </si>
   <si>
     <t>22,02%</t>
   </si>
   <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
     <t>13,66%</t>
   </si>
   <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tiene tiempo de llevar al día su trabajo en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
   </si>
   <si>
     <t>41,75%</t>
   </si>
   <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>Población según si tiene tiempo de llevar al día su trabajo en 2023 (Tasa respuesta: 10,37%)</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
   </si>
   <si>
     <t>4,89%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
   </si>
   <si>
     <t>45,02%</t>
   </si>
   <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
   </si>
   <si>
     <t>26,99%</t>
   </si>
   <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tiene tiempo de llevar al día su trabajo en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>Población según si tiene tiempo de llevar al día su trabajo en 2023 (Tasa respuesta: 10,37%)</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
     <t>50,28%</t>
   </si>
   <si>
-    <t>42,39%</t>
-  </si>
-  <si>
     <t>65,73%</t>
   </si>
   <si>
@@ -2225,9 +2222,6 @@
   </si>
   <si>
     <t>49,46%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
   </si>
   <si>
     <t>60,34%</t>
@@ -2642,7 +2636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0D895C-DC9C-419D-B6BB-C87B2C0FCC1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A000157-025D-4284-839D-95DED56F9572}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3128,10 +3122,10 @@
         <v>63</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -3140,13 +3134,13 @@
         <v>3102</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -3155,13 +3149,13 @@
         <v>7145</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,13 +3170,13 @@
         <v>34978</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>25</v>
@@ -3191,13 +3185,13 @@
         <v>27842</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>59</v>
@@ -3206,13 +3200,13 @@
         <v>62820</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,13 +3221,13 @@
         <v>66826</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -3242,13 +3236,13 @@
         <v>43031</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M13" s="7">
         <v>104</v>
@@ -3257,13 +3251,13 @@
         <v>109856</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,13 +3272,13 @@
         <v>107485</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H14" s="7">
         <v>56</v>
@@ -3293,13 +3287,13 @@
         <v>58538</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>158</v>
@@ -3308,13 +3302,13 @@
         <v>166024</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,7 +3364,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3382,13 +3376,13 @@
         <v>5046</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -3397,13 +3391,13 @@
         <v>6508</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -3412,13 +3406,13 @@
         <v>11554</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,13 +3427,13 @@
         <v>10852</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -3448,13 +3442,13 @@
         <v>9894</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -3463,13 +3457,13 @@
         <v>20746</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,10 +3478,10 @@
         <v>71383</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>119</v>
@@ -3505,7 +3499,7 @@
         <v>121</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="M18" s="7">
         <v>108</v>
@@ -3514,13 +3508,13 @@
         <v>116974</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3529,13 @@
         <v>116698</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>75</v>
@@ -3550,13 +3544,13 @@
         <v>83984</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>185</v>
@@ -3565,13 +3559,13 @@
         <v>200682</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3580,13 @@
         <v>205748</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>115</v>
@@ -3601,13 +3595,13 @@
         <v>125584</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>300</v>
@@ -3616,13 +3610,13 @@
         <v>331332</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,7 +3672,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3690,13 +3684,13 @@
         <v>6190</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -3705,13 +3699,13 @@
         <v>7406</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -3720,13 +3714,13 @@
         <v>13596</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,13 +3735,13 @@
         <v>6279</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -3756,13 +3750,13 @@
         <v>6486</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
@@ -3771,13 +3765,13 @@
         <v>12765</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,13 +3786,13 @@
         <v>48636</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>25</v>
@@ -3807,13 +3801,13 @@
         <v>27796</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>69</v>
@@ -3822,13 +3816,13 @@
         <v>76432</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,13 +3837,13 @@
         <v>91303</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>56</v>
@@ -3858,13 +3852,13 @@
         <v>64648</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>139</v>
@@ -3873,13 +3867,13 @@
         <v>155952</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,7 +3888,7 @@
         <v>169981</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>180</v>
+        <v>97</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>181</v>
@@ -4082,10 +4076,10 @@
         <v>205</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,13 +4094,13 @@
         <v>99842</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H30" s="7">
         <v>68</v>
@@ -4115,13 +4109,13 @@
         <v>70096</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M30" s="7">
         <v>167</v>
@@ -4130,13 +4124,13 @@
         <v>169938</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,13 +4145,13 @@
         <v>137790</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H31" s="7">
         <v>75</v>
@@ -4166,13 +4160,13 @@
         <v>80838</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M31" s="7">
         <v>210</v>
@@ -4181,13 +4175,13 @@
         <v>218629</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,13 +4196,13 @@
         <v>157506</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H32" s="7">
         <v>121</v>
@@ -4217,13 +4211,13 @@
         <v>125935</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M32" s="7">
         <v>267</v>
@@ -4232,13 +4226,13 @@
         <v>283441</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,13 +4300,13 @@
         <v>28069</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H34" s="7">
         <v>26</v>
@@ -4321,13 +4315,13 @@
         <v>29904</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M34" s="7">
         <v>53</v>
@@ -4336,13 +4330,13 @@
         <v>57973</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,10 +4351,10 @@
         <v>34684</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>245</v>
@@ -4375,10 +4369,10 @@
         <v>246</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>247</v>
+        <v>15</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="M35" s="7">
         <v>64</v>
@@ -4387,13 +4381,13 @@
         <v>68445</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,13 +4402,13 @@
         <v>269586</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H36" s="7">
         <v>161</v>
@@ -4423,13 +4417,13 @@
         <v>173520</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M36" s="7">
         <v>420</v>
@@ -4438,13 +4432,13 @@
         <v>443105</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,13 +4453,13 @@
         <v>428008</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H37" s="7">
         <v>254</v>
@@ -4474,13 +4468,13 @@
         <v>279166</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>265</v>
+        <v>87</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M37" s="7">
         <v>660</v>
@@ -4489,13 +4483,13 @@
         <v>707174</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>29</v>
+        <v>265</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4510,13 +4504,13 @@
         <v>661481</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H38" s="7">
         <v>403</v>
@@ -4525,13 +4519,13 @@
         <v>432329</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M38" s="7">
         <v>1013</v>
@@ -4540,13 +4534,13 @@
         <v>1093810</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,7 +4596,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -4623,7 +4617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7651F71-AA12-4433-AC5A-8D1A063ADA39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA856AC-0A6E-4E88-B8FC-E0223E9849FA}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4640,7 +4634,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4747,13 +4741,13 @@
         <v>1108</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4762,13 +4756,13 @@
         <v>968</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4777,13 +4771,13 @@
         <v>2076</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,13 +4792,13 @@
         <v>995</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4813,13 +4807,13 @@
         <v>2705</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -4828,7 +4822,7 @@
         <v>3700</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>105</v>
+        <v>289</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>290</v>
@@ -5055,7 +5049,7 @@
         <v>6897</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>319</v>
@@ -5088,10 +5082,10 @@
         <v>324</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,13 +5100,13 @@
         <v>12750</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -5121,13 +5115,13 @@
         <v>9784</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M11" s="7">
         <v>23</v>
@@ -5193,7 +5187,7 @@
         <v>341</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>178</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,13 +5202,13 @@
         <v>63167</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -5223,13 +5217,13 @@
         <v>39816</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M13" s="7">
         <v>101</v>
@@ -5238,13 +5232,13 @@
         <v>102984</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,13 +5253,13 @@
         <v>70527</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H14" s="7">
         <v>58</v>
@@ -5274,13 +5268,13 @@
         <v>56490</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M14" s="7">
         <v>123</v>
@@ -5289,10 +5283,10 @@
         <v>127017</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>358</v>
+        <v>217</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>359</v>
@@ -5351,7 +5345,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5363,13 +5357,13 @@
         <v>11919</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>108</v>
+        <v>360</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>248</v>
+        <v>362</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -5378,13 +5372,13 @@
         <v>9284</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>361</v>
+        <v>245</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>363</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -5396,10 +5390,10 @@
         <v>190</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>363</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5414,13 +5408,13 @@
         <v>22819</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -5429,13 +5423,13 @@
         <v>14412</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>367</v>
+        <v>198</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>190</v>
+        <v>368</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -5444,13 +5438,13 @@
         <v>37231</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,13 +5459,13 @@
         <v>73989</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H18" s="7">
         <v>50</v>
@@ -5480,13 +5474,13 @@
         <v>50107</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M18" s="7">
         <v>116</v>
@@ -5495,13 +5489,13 @@
         <v>124096</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5516,13 +5510,13 @@
         <v>141553</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>306</v>
+        <v>383</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H19" s="7">
         <v>82</v>
@@ -5531,13 +5525,13 @@
         <v>81675</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M19" s="7">
         <v>208</v>
@@ -5546,13 +5540,13 @@
         <v>223229</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>387</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5567,13 +5561,13 @@
         <v>163761</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H20" s="7">
         <v>112</v>
@@ -5582,13 +5576,13 @@
         <v>118294</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>393</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>260</v>
@@ -5659,7 +5653,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5674,10 +5668,10 @@
         <v>58</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -5686,13 +5680,13 @@
         <v>7898</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -5701,13 +5695,13 @@
         <v>17467</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5725,10 +5719,10 @@
         <v>324</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>283</v>
+        <v>403</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H23" s="7">
         <v>18</v>
@@ -5737,13 +5731,13 @@
         <v>18003</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M23" s="7">
         <v>32</v>
@@ -5752,7 +5746,7 @@
         <v>35269</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>409</v>
@@ -5776,10 +5770,10 @@
         <v>411</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="H24" s="7">
         <v>42</v>
@@ -5788,13 +5782,13 @@
         <v>44308</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="M24" s="7">
         <v>112</v>
@@ -5803,13 +5797,13 @@
         <v>120171</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5818,13 @@
         <v>111536</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="H25" s="7">
         <v>68</v>
@@ -5839,13 +5833,13 @@
         <v>67896</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>424</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>425</v>
+        <v>80</v>
       </c>
       <c r="M25" s="7">
         <v>168</v>
@@ -5854,13 +5848,13 @@
         <v>179433</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5875,13 +5869,13 @@
         <v>149585</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>297</v>
+        <v>427</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>275</v>
+        <v>429</v>
       </c>
       <c r="H26" s="7">
         <v>129</v>
@@ -5890,13 +5884,13 @@
         <v>132453</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M26" s="7">
         <v>263</v>
@@ -5905,13 +5899,13 @@
         <v>282038</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>434</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5982,10 +5976,10 @@
         <v>435</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="H28" s="7">
         <v>9</v>
@@ -5994,13 +5988,13 @@
         <v>9492</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="M28" s="7">
         <v>20</v>
@@ -6009,10 +6003,10 @@
         <v>20898</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>108</v>
+        <v>360</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>241</v>
+        <v>439</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>440</v>
@@ -6045,13 +6039,13 @@
         <v>15781</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M29" s="7">
         <v>35</v>
@@ -6060,13 +6054,13 @@
         <v>36353</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>248</v>
+        <v>447</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>446</v>
+        <v>13</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6081,13 +6075,13 @@
         <v>61534</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H30" s="7">
         <v>47</v>
@@ -6096,13 +6090,13 @@
         <v>50014</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M30" s="7">
         <v>108</v>
@@ -6111,13 +6105,13 @@
         <v>111548</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6132,13 +6126,13 @@
         <v>134508</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H31" s="7">
         <v>112</v>
@@ -6147,13 +6141,13 @@
         <v>116917</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M31" s="7">
         <v>248</v>
@@ -6162,13 +6156,13 @@
         <v>251426</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6183,13 +6177,13 @@
         <v>173151</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H32" s="7">
         <v>124</v>
@@ -6198,13 +6192,13 @@
         <v>133269</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M32" s="7">
         <v>289</v>
@@ -6213,13 +6207,13 @@
         <v>306420</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6287,13 +6281,13 @@
         <v>40899</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>108</v>
+        <v>360</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>475</v>
+        <v>439</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>407</v>
+        <v>476</v>
       </c>
       <c r="H34" s="7">
         <v>37</v>
@@ -6302,10 +6296,10 @@
         <v>36756</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>477</v>
+        <v>151</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>478</v>
@@ -6320,10 +6314,10 @@
         <v>479</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6338,13 +6332,13 @@
         <v>74402</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="H35" s="7">
         <v>60</v>
@@ -6353,13 +6347,13 @@
         <v>60685</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>487</v>
       </c>
       <c r="M35" s="7">
         <v>129</v>
@@ -6368,13 +6362,13 @@
         <v>135087</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="P35" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="Q35" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6389,13 +6383,13 @@
         <v>269881</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H36" s="7">
         <v>169</v>
@@ -6404,13 +6398,13 @@
         <v>173494</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M36" s="7">
         <v>422</v>
@@ -6419,13 +6413,13 @@
         <v>443375</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6440,13 +6434,13 @@
         <v>466056</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>266</v>
+        <v>499</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>499</v>
+        <v>386</v>
       </c>
       <c r="H37" s="7">
         <v>308</v>
@@ -6455,13 +6449,13 @@
         <v>310578</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M37" s="7">
         <v>746</v>
@@ -6470,13 +6464,13 @@
         <v>776634</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6491,13 +6485,13 @@
         <v>571083</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H38" s="7">
         <v>439</v>
@@ -6506,13 +6500,13 @@
         <v>455660</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M38" s="7">
         <v>964</v>
@@ -6521,13 +6515,13 @@
         <v>1026743</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>42</v>
+        <v>513</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6583,7 +6577,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -6604,7 +6598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B9D320-82ED-4C96-BC06-9CB556958F1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F776FA57-2413-4007-B222-3D732351ADC4}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6621,7 +6615,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6734,7 +6728,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6749,7 +6743,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6764,7 +6758,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6779,13 +6773,13 @@
         <v>1263</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6794,13 +6788,13 @@
         <v>543</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -6809,13 +6803,13 @@
         <v>1806</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>522</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6836,7 +6830,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6851,7 +6845,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6866,7 +6860,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6881,13 +6875,13 @@
         <v>7042</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -6896,13 +6890,13 @@
         <v>1917</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>324</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -6911,13 +6905,13 @@
         <v>8959</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6932,10 +6926,10 @@
         <v>7080</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>532</v>
+        <v>494</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>533</v>
@@ -6950,10 +6944,10 @@
         <v>534</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>536</v>
       </c>
       <c r="M8" s="7">
         <v>14</v>
@@ -6962,7 +6956,7 @@
         <v>13024</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>431</v>
+        <v>536</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>537</v>
@@ -7036,13 +7030,13 @@
         <v>1273</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>539</v>
+        <v>112</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>284</v>
+        <v>539</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -7054,7 +7048,7 @@
         <v>540</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>108</v>
+        <v>360</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>541</v>
@@ -7066,13 +7060,13 @@
         <v>6433</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>239</v>
+        <v>542</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7087,10 +7081,10 @@
         <v>5263</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>544</v>
+        <v>203</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>545</v>
@@ -7117,7 +7111,7 @@
         <v>5927</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>548</v>
@@ -7138,13 +7132,13 @@
         <v>4972</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>552</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -7153,13 +7147,13 @@
         <v>10888</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -7168,13 +7162,13 @@
         <v>15861</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7189,13 +7183,13 @@
         <v>14629</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -7204,7 +7198,7 @@
         <v>17391</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>265</v>
+        <v>561</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>562</v>
@@ -7332,7 +7326,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7362,10 +7356,10 @@
         <v>579</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>154</v>
+        <v>580</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -7374,10 +7368,10 @@
         <v>8359</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>581</v>
+        <v>22</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>582</v>
@@ -7395,10 +7389,10 @@
         <v>9017</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>583</v>
@@ -7410,13 +7404,13 @@
         <v>6315</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>111</v>
+        <v>584</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -7425,13 +7419,13 @@
         <v>15332</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7446,13 +7440,13 @@
         <v>36597</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -7461,13 +7455,13 @@
         <v>18841</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M18" s="7">
         <v>62</v>
@@ -7476,13 +7470,13 @@
         <v>55437</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>380</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7497,13 +7491,13 @@
         <v>40950</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -7512,10 +7506,10 @@
         <v>35290</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>600</v>
+        <v>302</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>601</v>
@@ -7533,7 +7527,7 @@
         <v>603</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>352</v>
+        <v>604</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7548,13 +7542,13 @@
         <v>120665</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H20" s="7">
         <v>80</v>
@@ -7563,13 +7557,13 @@
         <v>65879</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M20" s="7">
         <v>137</v>
@@ -7578,13 +7572,13 @@
         <v>186544</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7640,7 +7634,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7652,13 +7646,13 @@
         <v>2363</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -7667,13 +7661,13 @@
         <v>2108</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -7682,13 +7676,13 @@
         <v>4471</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7703,13 +7697,13 @@
         <v>5984</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>371</v>
+        <v>622</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -7718,13 +7712,13 @@
         <v>6165</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -7733,13 +7727,13 @@
         <v>12149</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7754,13 +7748,13 @@
         <v>25355</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -7769,13 +7763,13 @@
         <v>23381</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>633</v>
+        <v>88</v>
       </c>
       <c r="M24" s="7">
         <v>54</v>
@@ -7784,13 +7778,13 @@
         <v>48736</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7805,13 +7799,13 @@
         <v>19256</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -7820,13 +7814,13 @@
         <v>16156</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M25" s="7">
         <v>37</v>
@@ -7835,13 +7829,13 @@
         <v>35413</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7856,13 +7850,13 @@
         <v>28147</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H26" s="7">
         <v>47</v>
@@ -7871,13 +7865,13 @@
         <v>41686</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="M26" s="7">
         <v>72</v>
@@ -7886,13 +7880,13 @@
         <v>69832</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7960,13 +7954,13 @@
         <v>15622</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H28" s="7">
         <v>11</v>
@@ -7975,10 +7969,10 @@
         <v>7034</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>659</v>
+        <v>249</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>660</v>
@@ -8041,13 +8035,13 @@
         <v>11331</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>439</v>
+        <v>670</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8062,13 +8056,13 @@
         <v>15962</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H30" s="7">
         <v>20</v>
@@ -8077,10 +8071,10 @@
         <v>12857</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>676</v>
+        <v>283</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>677</v>
@@ -8092,10 +8086,10 @@
         <v>28819</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>678</v>
@@ -8131,10 +8125,10 @@
         <v>682</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>683</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>684</v>
       </c>
       <c r="M31" s="7">
         <v>67</v>
@@ -8143,13 +8137,13 @@
         <v>57282</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>686</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8164,13 +8158,13 @@
         <v>45568</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>688</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>689</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>690</v>
       </c>
       <c r="H32" s="7">
         <v>53</v>
@@ -8179,7 +8173,7 @@
         <v>43038</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>141</v>
+        <v>690</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>691</v>
@@ -8268,10 +8262,10 @@
         <v>24821</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>248</v>
+        <v>447</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>696</v>
@@ -8286,7 +8280,7 @@
         <v>697</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>698</v>
@@ -8349,10 +8343,10 @@
         <v>46545</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>367</v>
+        <v>198</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>251</v>
+        <v>366</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>664</v>
@@ -8391,7 +8385,7 @@
         <v>710</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>711</v>
+        <v>215</v>
       </c>
       <c r="M36" s="7">
         <v>176</v>
@@ -8400,13 +8394,13 @@
         <v>148853</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>713</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8421,13 +8415,13 @@
         <v>110035</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>715</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>716</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>717</v>
       </c>
       <c r="H37" s="7">
         <v>132</v>
@@ -8436,13 +8430,13 @@
         <v>99877</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>719</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>720</v>
       </c>
       <c r="M37" s="7">
         <v>233</v>
@@ -8451,13 +8445,13 @@
         <v>209912</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>721</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8475,10 +8469,10 @@
         <v>722</v>
       </c>
       <c r="F38" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>723</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>724</v>
       </c>
       <c r="H38" s="7">
         <v>236</v>
@@ -8487,13 +8481,13 @@
         <v>187792</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>725</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>726</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>727</v>
       </c>
       <c r="M38" s="7">
         <v>404</v>
@@ -8502,13 +8496,13 @@
         <v>437661</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>728</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8564,7 +8558,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6703-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6703-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BF1332C-FE76-49DD-B69C-F6BF9B8C062C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEA6E68E-6F48-4976-B2AA-6AE002D2DAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E11D6243-9D81-46AB-A6F4-64E57E1F0B46}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0BE5A146-4A09-4475-9A1A-61073AECBCE0}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="738">
   <si>
     <t>Población según si tiene tiempo de llevar al día su trabajo en 2012 (Tasa respuesta: 33,96%)</t>
   </si>
@@ -94,22 +94,22 @@
     <t>1,62%</t>
   </si>
   <si>
-    <t>9,19%</t>
+    <t>7,62%</t>
   </si>
   <si>
     <t>8,18%</t>
   </si>
   <si>
-    <t>26,4%</t>
+    <t>25,58%</t>
   </si>
   <si>
     <t>3,77%</t>
   </si>
   <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -118,2113 +118,2140 @@
     <t>28,51%</t>
   </si>
   <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
   </si>
   <si>
     <t>8,71%</t>
   </si>
   <si>
-    <t>27,31%</t>
+    <t>28,18%</t>
   </si>
   <si>
     <t>22,02%</t>
   </si>
   <si>
-    <t>13,61%</t>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
   </si>
   <si>
     <t>32,85%</t>
   </si>
   <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tiene tiempo de llevar al día su trabajo en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>2,4%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>Población según si tiene tiempo de llevar al día su trabajo en 2023 (Tasa respuesta: 10,37%)</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
   </si>
   <si>
     <t>3,86%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tiene tiempo de llevar al día su trabajo en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>Población según si tiene tiempo de llevar al día su trabajo en 2023 (Tasa respuesta: 10,37%)</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
   </si>
   <si>
     <t>17,0%</t>
   </si>
   <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
+    <t>13,74%</t>
   </si>
   <si>
     <t>20,73%</t>
   </si>
   <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
     <t>16,82%</t>
   </si>
   <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
   </si>
   <si>
     <t>22,14%</t>
   </si>
   <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
   </si>
   <si>
     <t>25,74%</t>
   </si>
   <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
   </si>
   <si>
     <t>23,72%</t>
   </si>
   <si>
-    <t>26,99%</t>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
   </si>
   <si>
     <t>50,28%</t>
   </si>
   <si>
-    <t>65,73%</t>
+    <t>64,93%</t>
   </si>
   <si>
     <t>48,4%</t>
   </si>
   <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
   </si>
   <si>
     <t>49,46%</t>
   </si>
   <si>
-    <t>60,34%</t>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
   </si>
 </sst>
 </file>
@@ -2636,7 +2663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A000157-025D-4284-839D-95DED56F9572}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF0AEA68-1C27-4693-99AC-2E66E647477A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3122,10 +3149,10 @@
         <v>63</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -3134,13 +3161,13 @@
         <v>3102</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -3149,13 +3176,13 @@
         <v>7145</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,13 +3197,13 @@
         <v>34978</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>25</v>
@@ -3185,13 +3212,13 @@
         <v>27842</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>59</v>
@@ -3200,13 +3227,13 @@
         <v>62820</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,13 +3248,13 @@
         <v>66826</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -3236,13 +3263,13 @@
         <v>43031</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M13" s="7">
         <v>104</v>
@@ -3251,13 +3278,13 @@
         <v>109856</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,13 +3299,13 @@
         <v>107485</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H14" s="7">
         <v>56</v>
@@ -3287,13 +3314,13 @@
         <v>58538</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>158</v>
@@ -3302,13 +3329,13 @@
         <v>166024</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,7 +3391,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3376,10 +3403,10 @@
         <v>5046</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>101</v>
@@ -3478,13 +3505,13 @@
         <v>71383</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H18" s="7">
         <v>41</v>
@@ -3493,13 +3520,13 @@
         <v>45591</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M18" s="7">
         <v>108</v>
@@ -3508,13 +3535,13 @@
         <v>116974</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3556,13 @@
         <v>116698</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>75</v>
@@ -3544,13 +3571,13 @@
         <v>83984</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>185</v>
@@ -3559,13 +3586,13 @@
         <v>200682</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,13 +3607,13 @@
         <v>205748</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>115</v>
@@ -3595,13 +3622,13 @@
         <v>125584</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>300</v>
@@ -3610,13 +3637,13 @@
         <v>331332</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,7 +3699,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3684,13 +3711,13 @@
         <v>6190</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -3699,13 +3726,13 @@
         <v>7406</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -3714,13 +3741,13 @@
         <v>13596</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3735,13 +3762,13 @@
         <v>6279</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -3750,13 +3777,13 @@
         <v>6486</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
@@ -3765,13 +3792,13 @@
         <v>12765</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,13 +3813,13 @@
         <v>48636</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>25</v>
@@ -3801,13 +3828,13 @@
         <v>27796</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>69</v>
@@ -3816,13 +3843,13 @@
         <v>76432</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,13 +3864,13 @@
         <v>91303</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>56</v>
@@ -3852,13 +3879,13 @@
         <v>64648</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>139</v>
@@ -3867,13 +3894,13 @@
         <v>155952</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,13 +3915,13 @@
         <v>169981</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>99</v>
@@ -3903,13 +3930,13 @@
         <v>108005</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>254</v>
@@ -3918,13 +3945,13 @@
         <v>277987</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,7 +4007,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3992,13 +4019,13 @@
         <v>12961</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -4007,13 +4034,13 @@
         <v>12413</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M28" s="7">
         <v>24</v>
@@ -4022,13 +4049,13 @@
         <v>25374</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,13 +4070,13 @@
         <v>12674</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>201</v>
+        <v>104</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -4058,13 +4085,13 @@
         <v>12220</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>25</v>
@@ -4073,13 +4100,13 @@
         <v>24894</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4121,13 @@
         <v>99842</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>68</v>
@@ -4109,13 +4136,13 @@
         <v>70096</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>167</v>
@@ -4124,13 +4151,13 @@
         <v>169938</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,13 +4172,13 @@
         <v>137790</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>75</v>
@@ -4160,13 +4187,13 @@
         <v>80838</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>210</v>
@@ -4175,13 +4202,13 @@
         <v>218629</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,13 +4223,13 @@
         <v>157506</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>121</v>
@@ -4211,13 +4238,13 @@
         <v>125935</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>267</v>
@@ -4226,13 +4253,13 @@
         <v>283441</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,13 +4327,13 @@
         <v>28069</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>236</v>
+        <v>159</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H34" s="7">
         <v>26</v>
@@ -4315,13 +4342,13 @@
         <v>29904</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M34" s="7">
         <v>53</v>
@@ -4330,13 +4357,13 @@
         <v>57973</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,13 +4378,13 @@
         <v>34684</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>112</v>
+        <v>241</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H35" s="7">
         <v>32</v>
@@ -4366,13 +4393,13 @@
         <v>33761</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="M35" s="7">
         <v>64</v>
@@ -4381,13 +4408,13 @@
         <v>68445</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,13 +4429,13 @@
         <v>269586</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H36" s="7">
         <v>161</v>
@@ -4417,13 +4444,13 @@
         <v>173520</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M36" s="7">
         <v>420</v>
@@ -4432,13 +4459,13 @@
         <v>443105</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,13 +4480,13 @@
         <v>428008</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H37" s="7">
         <v>254</v>
@@ -4468,10 +4495,10 @@
         <v>279166</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>263</v>
@@ -4617,7 +4644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA856AC-0A6E-4E88-B8FC-E0223E9849FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD7921B-4A3E-45F9-AF36-5FEF27087089}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4978,10 +5005,10 @@
         <v>316</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,13 +5076,13 @@
         <v>6897</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -5064,13 +5091,13 @@
         <v>9114</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -5079,10 +5106,10 @@
         <v>16010</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>325</v>
@@ -5103,7 +5130,7 @@
         <v>326</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>327</v>
@@ -5118,10 +5145,10 @@
         <v>328</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M11" s="7">
         <v>23</v>
@@ -5130,13 +5157,13 @@
         <v>22534</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,13 +5178,13 @@
         <v>45929</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
@@ -5166,13 +5193,13 @@
         <v>22274</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M12" s="7">
         <v>67</v>
@@ -5181,13 +5208,13 @@
         <v>68202</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,13 +5229,13 @@
         <v>63167</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -5217,13 +5244,13 @@
         <v>39816</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M13" s="7">
         <v>101</v>
@@ -5232,13 +5259,13 @@
         <v>102984</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5280,13 @@
         <v>70527</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H14" s="7">
         <v>58</v>
@@ -5268,13 +5295,13 @@
         <v>56490</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M14" s="7">
         <v>123</v>
@@ -5283,13 +5310,13 @@
         <v>127017</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5345,7 +5372,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5357,13 +5384,13 @@
         <v>11919</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -5372,13 +5399,13 @@
         <v>9284</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>245</v>
+        <v>361</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>363</v>
+        <v>198</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -5387,13 +5414,13 @@
         <v>21202</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>154</v>
+        <v>363</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>116</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,10 +5450,10 @@
         <v>14412</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>198</v>
+        <v>368</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>368</v>
+        <v>155</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>369</v>
@@ -5459,13 +5486,13 @@
         <v>73989</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="H18" s="7">
         <v>50</v>
@@ -5474,13 +5501,13 @@
         <v>50107</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M18" s="7">
         <v>116</v>
@@ -5489,13 +5516,13 @@
         <v>124096</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,13 +5537,13 @@
         <v>141553</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="H19" s="7">
         <v>82</v>
@@ -5528,10 +5555,10 @@
         <v>264</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="M19" s="7">
         <v>208</v>
@@ -5540,13 +5567,13 @@
         <v>223229</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,7 +5609,7 @@
         <v>393</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>394</v>
       </c>
       <c r="M20" s="7">
         <v>260</v>
@@ -5591,13 +5618,13 @@
         <v>282054</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,7 +5680,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5668,10 +5695,10 @@
         <v>58</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>161</v>
+        <v>398</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>397</v>
+        <v>104</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -5680,13 +5707,13 @@
         <v>7898</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>149</v>
+        <v>400</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -5695,13 +5722,13 @@
         <v>17467</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5716,13 +5743,13 @@
         <v>17266</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H23" s="7">
         <v>18</v>
@@ -5731,13 +5758,13 @@
         <v>18003</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="M23" s="7">
         <v>32</v>
@@ -5746,13 +5773,13 @@
         <v>35269</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5767,13 +5794,13 @@
         <v>75863</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>120</v>
+        <v>414</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="H24" s="7">
         <v>42</v>
@@ -5782,13 +5809,13 @@
         <v>44308</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>415</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>112</v>
@@ -5797,13 +5824,13 @@
         <v>120171</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5845,13 @@
         <v>111536</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H25" s="7">
         <v>68</v>
@@ -5833,13 +5860,13 @@
         <v>67896</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>80</v>
+        <v>426</v>
       </c>
       <c r="M25" s="7">
         <v>168</v>
@@ -5848,13 +5875,13 @@
         <v>179433</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5869,13 +5896,13 @@
         <v>149585</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>428</v>
+        <v>89</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H26" s="7">
         <v>129</v>
@@ -5884,13 +5911,13 @@
         <v>132453</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M26" s="7">
         <v>263</v>
@@ -5899,13 +5926,13 @@
         <v>282038</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>272</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5961,7 +5988,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5973,13 +6000,13 @@
         <v>11406</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>363</v>
+        <v>439</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>436</v>
+        <v>360</v>
       </c>
       <c r="H28" s="7">
         <v>9</v>
@@ -5988,13 +6015,13 @@
         <v>9492</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>437</v>
+        <v>109</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M28" s="7">
         <v>20</v>
@@ -6003,13 +6030,13 @@
         <v>20898</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6024,13 +6051,13 @@
         <v>20572</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>441</v>
+        <v>154</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H29" s="7">
         <v>15</v>
@@ -6039,13 +6066,13 @@
         <v>15781</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M29" s="7">
         <v>35</v>
@@ -6054,13 +6081,13 @@
         <v>36353</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>13</v>
+        <v>449</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>448</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6075,13 +6102,13 @@
         <v>61534</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H30" s="7">
         <v>47</v>
@@ -6090,13 +6117,13 @@
         <v>50014</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M30" s="7">
         <v>108</v>
@@ -6105,13 +6132,13 @@
         <v>111548</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,13 +6153,13 @@
         <v>134508</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H31" s="7">
         <v>112</v>
@@ -6141,13 +6168,13 @@
         <v>116917</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M31" s="7">
         <v>248</v>
@@ -6156,13 +6183,13 @@
         <v>251426</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,13 +6204,13 @@
         <v>173151</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H32" s="7">
         <v>124</v>
@@ -6192,13 +6219,13 @@
         <v>133269</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M32" s="7">
         <v>289</v>
@@ -6207,13 +6234,13 @@
         <v>306420</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6281,13 +6308,13 @@
         <v>40899</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>439</v>
+        <v>235</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H34" s="7">
         <v>37</v>
@@ -6296,13 +6323,13 @@
         <v>36756</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>151</v>
+        <v>479</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="M34" s="7">
         <v>75</v>
@@ -6311,13 +6338,13 @@
         <v>77655</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>241</v>
+        <v>15</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,13 +6359,13 @@
         <v>74402</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>482</v>
+        <v>71</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H35" s="7">
         <v>60</v>
@@ -6347,13 +6374,13 @@
         <v>60685</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M35" s="7">
         <v>129</v>
@@ -6362,13 +6389,13 @@
         <v>135087</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6383,13 +6410,13 @@
         <v>269881</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H36" s="7">
         <v>169</v>
@@ -6398,13 +6425,13 @@
         <v>173494</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M36" s="7">
         <v>422</v>
@@ -6413,13 +6440,13 @@
         <v>443375</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6434,13 +6461,13 @@
         <v>466056</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>386</v>
+        <v>502</v>
       </c>
       <c r="H37" s="7">
         <v>308</v>
@@ -6449,13 +6476,13 @@
         <v>310578</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>502</v>
+        <v>217</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M37" s="7">
         <v>746</v>
@@ -6464,10 +6491,10 @@
         <v>776634</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>505</v>
+        <v>264</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>506</v>
@@ -6521,7 +6548,7 @@
         <v>514</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>515</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6598,7 +6625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F776FA57-2413-4007-B222-3D732351ADC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68ADA1AC-D515-4C4D-8FC5-1382A25D6033}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6615,7 +6642,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6728,7 +6755,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6743,7 +6770,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6758,7 +6785,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6773,13 +6800,13 @@
         <v>1263</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6788,13 +6815,13 @@
         <v>543</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -6803,13 +6830,13 @@
         <v>1806</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>266</v>
+        <v>523</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6830,7 +6857,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6845,7 +6872,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6860,7 +6887,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6893,7 +6920,7 @@
         <v>527</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>324</v>
+        <v>196</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>528</v>
@@ -6929,10 +6956,10 @@
         <v>532</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>494</v>
+        <v>533</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -6941,13 +6968,13 @@
         <v>5944</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>508</v>
+        <v>536</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="M8" s="7">
         <v>14</v>
@@ -6956,13 +6983,13 @@
         <v>13024</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7030,13 +7057,13 @@
         <v>1273</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>112</v>
+        <v>541</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -7045,13 +7072,13 @@
         <v>5160</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>360</v>
+        <v>438</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -7060,13 +7087,13 @@
         <v>6433</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7081,13 +7108,13 @@
         <v>5263</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>203</v>
+        <v>548</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -7096,13 +7123,13 @@
         <v>664</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -7111,13 +7138,13 @@
         <v>5927</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>402</v>
+        <v>57</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7132,13 +7159,13 @@
         <v>4972</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>483</v>
+        <v>554</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>550</v>
+        <v>479</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -7147,13 +7174,13 @@
         <v>10888</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -7162,13 +7189,13 @@
         <v>15861</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7183,13 +7210,13 @@
         <v>14629</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -7198,13 +7225,13 @@
         <v>17391</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -7213,13 +7240,13 @@
         <v>32019</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7234,13 +7261,13 @@
         <v>48409</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
@@ -7249,13 +7276,13 @@
         <v>31245</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="M14" s="7">
         <v>84</v>
@@ -7264,13 +7291,13 @@
         <v>79654</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7326,7 +7353,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7338,13 +7365,13 @@
         <v>5564</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>577</v>
+        <v>67</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -7353,13 +7380,13 @@
         <v>2795</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -7368,13 +7395,13 @@
         <v>8359</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7389,13 +7416,13 @@
         <v>9017</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>402</v>
+        <v>57</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>152</v>
+        <v>587</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -7404,13 +7431,13 @@
         <v>6315</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -7419,13 +7446,13 @@
         <v>15332</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>587</v>
+        <v>404</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7440,13 +7467,13 @@
         <v>36597</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -7455,13 +7482,13 @@
         <v>18841</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="M18" s="7">
         <v>62</v>
@@ -7470,13 +7497,13 @@
         <v>55437</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>252</v>
+        <v>602</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7491,13 +7518,13 @@
         <v>40950</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>14</v>
+        <v>604</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -7506,13 +7533,13 @@
         <v>35290</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>302</v>
+        <v>607</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="M19" s="7">
         <v>84</v>
@@ -7521,13 +7548,13 @@
         <v>76240</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7542,13 +7569,13 @@
         <v>120665</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="H20" s="7">
         <v>80</v>
@@ -7557,13 +7584,13 @@
         <v>65879</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="M20" s="7">
         <v>137</v>
@@ -7572,13 +7599,13 @@
         <v>186544</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7634,7 +7661,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7646,13 +7673,13 @@
         <v>2363</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>614</v>
+        <v>107</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -7661,13 +7688,13 @@
         <v>2108</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>588</v>
+        <v>548</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -7676,13 +7703,13 @@
         <v>4471</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7697,13 +7724,13 @@
         <v>5984</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>623</v>
+        <v>101</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -7712,13 +7739,13 @@
         <v>6165</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>626</v>
+        <v>405</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -7730,10 +7757,10 @@
         <v>328</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,13 +7775,13 @@
         <v>25355</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -7763,13 +7790,13 @@
         <v>23381</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>88</v>
+        <v>639</v>
       </c>
       <c r="M24" s="7">
         <v>54</v>
@@ -7778,13 +7805,13 @@
         <v>48736</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7799,13 +7826,13 @@
         <v>19256</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>640</v>
+        <v>130</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -7814,13 +7841,13 @@
         <v>16156</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="M25" s="7">
         <v>37</v>
@@ -7829,13 +7856,13 @@
         <v>35413</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7850,13 +7877,13 @@
         <v>28147</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="H26" s="7">
         <v>47</v>
@@ -7865,13 +7892,13 @@
         <v>41686</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="M26" s="7">
         <v>72</v>
@@ -7880,13 +7907,13 @@
         <v>69832</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7942,7 +7969,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7954,13 +7981,13 @@
         <v>15622</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>656</v>
+        <v>376</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="H28" s="7">
         <v>11</v>
@@ -7969,13 +7996,13 @@
         <v>7034</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>659</v>
+        <v>148</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>249</v>
+        <v>662</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="M28" s="7">
         <v>24</v>
@@ -7984,13 +8011,13 @@
         <v>22656</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>663</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,13 +8032,13 @@
         <v>7775</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>665</v>
+        <v>405</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -8020,13 +8047,13 @@
         <v>3555</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>669</v>
+        <v>591</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -8074,10 +8101,10 @@
         <v>676</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>283</v>
+        <v>677</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="M30" s="7">
         <v>37</v>
@@ -8086,13 +8113,13 @@
         <v>28819</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>656</v>
+        <v>376</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>616</v>
+        <v>679</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8107,13 +8134,13 @@
         <v>28158</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H31" s="7">
         <v>39</v>
@@ -8122,13 +8149,13 @@
         <v>29124</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>122</v>
+        <v>685</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="M31" s="7">
         <v>67</v>
@@ -8137,13 +8164,13 @@
         <v>57282</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8158,13 +8185,13 @@
         <v>45568</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="H32" s="7">
         <v>53</v>
@@ -8173,13 +8200,13 @@
         <v>43038</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="M32" s="7">
         <v>97</v>
@@ -8188,13 +8215,13 @@
         <v>88606</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8262,13 +8289,13 @@
         <v>24821</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>398</v>
+        <v>699</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="H34" s="7">
         <v>25</v>
@@ -8277,13 +8304,13 @@
         <v>17096</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>697</v>
+        <v>160</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>247</v>
+        <v>358</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="M34" s="7">
         <v>47</v>
@@ -8292,13 +8319,13 @@
         <v>41917</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>13</v>
+        <v>361</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8313,13 +8340,13 @@
         <v>29303</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="H35" s="7">
         <v>22</v>
@@ -8328,13 +8355,13 @@
         <v>17243</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="M35" s="7">
         <v>47</v>
@@ -8343,13 +8370,13 @@
         <v>46545</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>198</v>
+        <v>368</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>366</v>
+        <v>710</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>664</v>
+        <v>711</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8364,13 +8391,13 @@
         <v>82886</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="H36" s="7">
         <v>96</v>
@@ -8379,13 +8406,13 @@
         <v>65967</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>562</v>
+        <v>715</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>215</v>
+        <v>717</v>
       </c>
       <c r="M36" s="7">
         <v>176</v>
@@ -8394,13 +8421,13 @@
         <v>148853</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8415,13 +8442,13 @@
         <v>110035</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="H37" s="7">
         <v>132</v>
@@ -8430,13 +8457,13 @@
         <v>99877</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="M37" s="7">
         <v>233</v>
@@ -8445,13 +8472,13 @@
         <v>209912</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>256</v>
+        <v>728</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8466,13 +8493,13 @@
         <v>249869</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>271</v>
+        <v>91</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="H38" s="7">
         <v>236</v>
@@ -8481,13 +8508,13 @@
         <v>187792</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="M38" s="7">
         <v>404</v>
@@ -8496,13 +8523,13 @@
         <v>437661</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>396</v>
+        <v>736</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
